--- a/biology/Zoologie/Candoia_superciliosa/Candoia_superciliosa.xlsx
+++ b/biology/Zoologie/Candoia_superciliosa/Candoia_superciliosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Candoia superciliosa est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Candoia superciliosa est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Palaos[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Palaos.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 février 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 février 2014) :
 Candoia superciliosa superciliosa (Günther, 1863)
 Candoia superciliosa crombiei Smith &amp; Chiszar, 2001</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espère Candoia superciliosa crombiei est nommée en l'honneur de Ronald Ian Crombie[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espère Candoia superciliosa crombiei est nommée en l'honneur de Ronald Ian Crombie.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1863 : Third account of new species of snakes in the collection of the British Museum. Annals and magazine of natural history, sér. 3, vol. 12, p. 348-365 (texte intégral).
 Smith, Chiszar, Tepedelen &amp; van Breukelen, 2001 : A revision of bevelnosed boas (Candoia carinata complex) (Reptilia: Serpentes). Hamadryad, vol. 26, no 2, p. 283-315.</t>
